--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il6-Il6ra.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il6-Il6ra.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.1499698501848</v>
+        <v>8.921332</v>
       </c>
       <c r="H2">
-        <v>4.1499698501848</v>
+        <v>26.763996</v>
       </c>
       <c r="I2">
-        <v>0.04738204400198264</v>
+        <v>0.08132400804126952</v>
       </c>
       <c r="J2">
-        <v>0.04738204400198264</v>
+        <v>0.08603833314354256</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.50049158653925</v>
+        <v>1.750370666666667</v>
       </c>
       <c r="N2">
-        <v>1.50049158653925</v>
+        <v>5.251112</v>
       </c>
       <c r="O2">
-        <v>0.03792351177005734</v>
+        <v>0.0391111353954311</v>
       </c>
       <c r="P2">
-        <v>0.03792351177005734</v>
+        <v>0.03922717319114838</v>
       </c>
       <c r="Q2">
-        <v>6.226994844593845</v>
+        <v>15.61563784039467</v>
       </c>
       <c r="R2">
-        <v>6.226994844593845</v>
+        <v>140.540740563552</v>
       </c>
       <c r="S2">
-        <v>0.001796893503398563</v>
+        <v>0.00318067428940122</v>
       </c>
       <c r="T2">
-        <v>0.001796893503398563</v>
+        <v>0.003375040595299466</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.1499698501848</v>
+        <v>8.921332</v>
       </c>
       <c r="H3">
-        <v>4.1499698501848</v>
+        <v>26.763996</v>
       </c>
       <c r="I3">
-        <v>0.04738204400198264</v>
+        <v>0.08132400804126952</v>
       </c>
       <c r="J3">
-        <v>0.04738204400198264</v>
+        <v>0.08603833314354256</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.01393503384872</v>
+        <v>1.224221333333333</v>
       </c>
       <c r="N3">
-        <v>1.01393503384872</v>
+        <v>3.672664</v>
       </c>
       <c r="O3">
-        <v>0.02562625311276918</v>
+        <v>0.02735459821956294</v>
       </c>
       <c r="P3">
-        <v>0.02562625311276918</v>
+        <v>0.02743575585531137</v>
       </c>
       <c r="Q3">
-        <v>4.207799820518293</v>
+        <v>10.92168495614933</v>
       </c>
       <c r="R3">
-        <v>4.207799820518293</v>
+        <v>98.295164605344</v>
       </c>
       <c r="S3">
-        <v>0.001214224252595174</v>
+        <v>0.002224585565573433</v>
       </c>
       <c r="T3">
-        <v>0.001214224252595174</v>
+        <v>0.002360526702324178</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.1499698501848</v>
+        <v>8.921332</v>
       </c>
       <c r="H4">
-        <v>4.1499698501848</v>
+        <v>26.763996</v>
       </c>
       <c r="I4">
-        <v>0.04738204400198264</v>
+        <v>0.08132400804126952</v>
       </c>
       <c r="J4">
-        <v>0.04738204400198264</v>
+        <v>0.08603833314354256</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.0264421308201</v>
+        <v>19.688264</v>
       </c>
       <c r="N4">
-        <v>15.0264421308201</v>
+        <v>59.064792</v>
       </c>
       <c r="O4">
-        <v>0.3797791737870136</v>
+        <v>0.4399241678743427</v>
       </c>
       <c r="P4">
-        <v>0.3797791737870136</v>
+        <v>0.4412293672812835</v>
       </c>
       <c r="Q4">
-        <v>62.35928179845006</v>
+        <v>175.645539647648</v>
       </c>
       <c r="R4">
-        <v>62.35928179845006</v>
+        <v>1580.809856828832</v>
       </c>
       <c r="S4">
-        <v>0.01799471352341289</v>
+        <v>0.03577639656576185</v>
       </c>
       <c r="T4">
-        <v>0.01799471352341289</v>
+        <v>0.03796263929486157</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.1499698501848</v>
+        <v>8.921332</v>
       </c>
       <c r="H5">
-        <v>4.1499698501848</v>
+        <v>26.763996</v>
       </c>
       <c r="I5">
-        <v>0.04738204400198264</v>
+        <v>0.08132400804126952</v>
       </c>
       <c r="J5">
-        <v>0.04738204400198264</v>
+        <v>0.08603833314354256</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.6286835961639</v>
+        <v>21.69375366666667</v>
       </c>
       <c r="N5">
-        <v>21.6286835961639</v>
+        <v>65.081261</v>
       </c>
       <c r="O5">
-        <v>0.546644609198888</v>
+        <v>0.4847358065637125</v>
       </c>
       <c r="P5">
-        <v>0.546644609198888</v>
+        <v>0.4861739564391943</v>
       </c>
       <c r="Q5">
-        <v>89.75838482326675</v>
+        <v>193.5371787865506</v>
       </c>
       <c r="R5">
-        <v>89.75838482326675</v>
+        <v>1741.834609078956</v>
       </c>
       <c r="S5">
-        <v>0.02590113892650832</v>
+        <v>0.03942065863087862</v>
       </c>
       <c r="T5">
-        <v>0.02590113892650832</v>
+        <v>0.04182959682982955</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.1499698501848</v>
+        <v>8.921332</v>
       </c>
       <c r="H6">
-        <v>4.1499698501848</v>
+        <v>26.763996</v>
       </c>
       <c r="I6">
-        <v>0.04738204400198264</v>
+        <v>0.08132400804126952</v>
       </c>
       <c r="J6">
-        <v>0.04738204400198264</v>
+        <v>0.08603833314354256</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.396709227695802</v>
+        <v>0.397158</v>
       </c>
       <c r="N6">
-        <v>0.396709227695802</v>
+        <v>0.794316</v>
       </c>
       <c r="O6">
-        <v>0.01002645213127196</v>
+        <v>0.008874291946950641</v>
       </c>
       <c r="P6">
-        <v>0.01002645213127196</v>
+        <v>0.005933747233062296</v>
       </c>
       <c r="Q6">
-        <v>1.646331334227675</v>
+        <v>3.543178374456</v>
       </c>
       <c r="R6">
-        <v>1.646331334227675</v>
+        <v>21.259070246736</v>
       </c>
       <c r="S6">
-        <v>0.0004750737960677006</v>
+        <v>0.0007216929896543872</v>
       </c>
       <c r="T6">
-        <v>0.0004750737960677006</v>
+        <v>0.0005105297212277877</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>68.5303112830146</v>
+        <v>76.28028133333333</v>
       </c>
       <c r="H7">
-        <v>68.5303112830146</v>
+        <v>228.840844</v>
       </c>
       <c r="I7">
-        <v>0.7824409193085511</v>
+        <v>0.6953466379843617</v>
       </c>
       <c r="J7">
-        <v>0.7824409193085511</v>
+        <v>0.7356556462241831</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.50049158653925</v>
+        <v>1.750370666666667</v>
       </c>
       <c r="N7">
-        <v>1.50049158653925</v>
+        <v>5.251112</v>
       </c>
       <c r="O7">
-        <v>0.03792351177005734</v>
+        <v>0.0391111353954311</v>
       </c>
       <c r="P7">
-        <v>0.03792351177005734</v>
+        <v>0.03922717319114838</v>
       </c>
       <c r="Q7">
-        <v>102.8291555030792</v>
+        <v>133.5187668909476</v>
       </c>
       <c r="R7">
-        <v>102.8291555030792</v>
+        <v>1201.668902018528</v>
       </c>
       <c r="S7">
-        <v>0.02967290741277232</v>
+        <v>0.02719579650496419</v>
       </c>
       <c r="T7">
-        <v>0.02967290741277232</v>
+        <v>0.02885769144348221</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>68.5303112830146</v>
+        <v>76.28028133333333</v>
       </c>
       <c r="H8">
-        <v>68.5303112830146</v>
+        <v>228.840844</v>
       </c>
       <c r="I8">
-        <v>0.7824409193085511</v>
+        <v>0.6953466379843617</v>
       </c>
       <c r="J8">
-        <v>0.7824409193085511</v>
+        <v>0.7356556462241831</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.01393503384872</v>
+        <v>1.224221333333333</v>
       </c>
       <c r="N8">
-        <v>1.01393503384872</v>
+        <v>3.672664</v>
       </c>
       <c r="O8">
-        <v>0.02562625311276918</v>
+        <v>0.02735459821956294</v>
       </c>
       <c r="P8">
-        <v>0.02562625311276918</v>
+        <v>0.02743575585531137</v>
       </c>
       <c r="Q8">
-        <v>69.48528349040673</v>
+        <v>93.38394772093511</v>
       </c>
       <c r="R8">
-        <v>69.48528349040673</v>
+        <v>840.455529488416</v>
       </c>
       <c r="S8">
-        <v>0.02005102904398874</v>
+        <v>0.0190209279053861</v>
       </c>
       <c r="T8">
-        <v>0.02005102904398874</v>
+        <v>0.020183268703388</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>68.5303112830146</v>
+        <v>76.28028133333333</v>
       </c>
       <c r="H9">
-        <v>68.5303112830146</v>
+        <v>228.840844</v>
       </c>
       <c r="I9">
-        <v>0.7824409193085511</v>
+        <v>0.6953466379843617</v>
       </c>
       <c r="J9">
-        <v>0.7824409193085511</v>
+        <v>0.7356556462241831</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.0264421308201</v>
+        <v>19.688264</v>
       </c>
       <c r="N9">
-        <v>15.0264421308201</v>
+        <v>59.064792</v>
       </c>
       <c r="O9">
-        <v>0.3797791737870136</v>
+        <v>0.4399241678743427</v>
       </c>
       <c r="P9">
-        <v>0.3797791737870136</v>
+        <v>0.4412293672812835</v>
       </c>
       <c r="Q9">
-        <v>1029.766756701307</v>
+        <v>1501.826316884939</v>
       </c>
       <c r="R9">
-        <v>1029.766756701307</v>
+        <v>13516.43685196445</v>
       </c>
       <c r="S9">
-        <v>0.2971547658721529</v>
+        <v>0.3058997910994922</v>
       </c>
       <c r="T9">
-        <v>0.2971547658721529</v>
+        <v>0.3245928753204001</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>68.5303112830146</v>
+        <v>76.28028133333333</v>
       </c>
       <c r="H10">
-        <v>68.5303112830146</v>
+        <v>228.840844</v>
       </c>
       <c r="I10">
-        <v>0.7824409193085511</v>
+        <v>0.6953466379843617</v>
       </c>
       <c r="J10">
-        <v>0.7824409193085511</v>
+        <v>0.7356556462241831</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.6286835961639</v>
+        <v>21.69375366666667</v>
       </c>
       <c r="N10">
-        <v>21.6286835961639</v>
+        <v>65.081261</v>
       </c>
       <c r="O10">
-        <v>0.546644609198888</v>
+        <v>0.4847358065637125</v>
       </c>
       <c r="P10">
-        <v>0.546644609198888</v>
+        <v>0.4861739564391943</v>
       </c>
       <c r="Q10">
-        <v>1482.220419486944</v>
+        <v>1654.805632869365</v>
       </c>
       <c r="R10">
-        <v>1482.220419486944</v>
+        <v>14893.25069582428</v>
       </c>
       <c r="S10">
-        <v>0.4277171105566416</v>
+        <v>0.3370594134047154</v>
       </c>
       <c r="T10">
-        <v>0.4277171105566416</v>
+        <v>0.3576566161016433</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>68.5303112830146</v>
+        <v>76.28028133333333</v>
       </c>
       <c r="H11">
-        <v>68.5303112830146</v>
+        <v>228.840844</v>
       </c>
       <c r="I11">
-        <v>0.7824409193085511</v>
+        <v>0.6953466379843617</v>
       </c>
       <c r="J11">
-        <v>0.7824409193085511</v>
+        <v>0.7356556462241831</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.396709227695802</v>
+        <v>0.397158</v>
       </c>
       <c r="N11">
-        <v>0.396709227695802</v>
+        <v>0.794316</v>
       </c>
       <c r="O11">
-        <v>0.01002645213127196</v>
+        <v>0.008874291946950641</v>
       </c>
       <c r="P11">
-        <v>0.01002645213127196</v>
+        <v>0.005933747233062296</v>
       </c>
       <c r="Q11">
-        <v>27.18660686283763</v>
+        <v>30.295323973784</v>
       </c>
       <c r="R11">
-        <v>27.18660686283763</v>
+        <v>181.771943842704</v>
       </c>
       <c r="S11">
-        <v>0.007845106422995612</v>
+        <v>0.006170709069803823</v>
       </c>
       <c r="T11">
-        <v>0.007845106422995612</v>
+        <v>0.004365194655269401</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.32211660064787</v>
+        <v>2.951015</v>
       </c>
       <c r="H12">
-        <v>1.32211660064787</v>
+        <v>8.853045</v>
       </c>
       <c r="I12">
-        <v>0.01509519085900335</v>
+        <v>0.02690050853279611</v>
       </c>
       <c r="J12">
-        <v>0.01509519085900335</v>
+        <v>0.02845992186834783</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.50049158653925</v>
+        <v>1.750370666666667</v>
       </c>
       <c r="N12">
-        <v>1.50049158653925</v>
+        <v>5.251112</v>
       </c>
       <c r="O12">
-        <v>0.03792351177005734</v>
+        <v>0.0391111353954311</v>
       </c>
       <c r="P12">
-        <v>0.03792351177005734</v>
+        <v>0.03922717319114838</v>
       </c>
       <c r="Q12">
-        <v>1.983824835696002</v>
+        <v>5.165370092893333</v>
       </c>
       <c r="R12">
-        <v>1.983824835696002</v>
+        <v>46.48833083604</v>
       </c>
       <c r="S12">
-        <v>0.0005724626482126754</v>
+        <v>0.001052109431432138</v>
       </c>
       <c r="T12">
-        <v>0.0005724626482126754</v>
+        <v>0.001116402284136231</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.32211660064787</v>
+        <v>2.951015</v>
       </c>
       <c r="H13">
-        <v>1.32211660064787</v>
+        <v>8.853045</v>
       </c>
       <c r="I13">
-        <v>0.01509519085900335</v>
+        <v>0.02690050853279611</v>
       </c>
       <c r="J13">
-        <v>0.01509519085900335</v>
+        <v>0.02845992186834783</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.01393503384872</v>
+        <v>1.224221333333333</v>
       </c>
       <c r="N13">
-        <v>1.01393503384872</v>
+        <v>3.672664</v>
       </c>
       <c r="O13">
-        <v>0.02562625311276918</v>
+        <v>0.02735459821956294</v>
       </c>
       <c r="P13">
-        <v>0.02562625311276918</v>
+        <v>0.02743575585531137</v>
       </c>
       <c r="Q13">
-        <v>1.340540340229853</v>
+        <v>3.612695517986667</v>
       </c>
       <c r="R13">
-        <v>1.340540340229853</v>
+        <v>32.51425966188</v>
       </c>
       <c r="S13">
-        <v>0.0003868331817383794</v>
+        <v>0.0007358526028165621</v>
       </c>
       <c r="T13">
-        <v>0.0003868331817383794</v>
+        <v>0.0007808194680412279</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.32211660064787</v>
+        <v>2.951015</v>
       </c>
       <c r="H14">
-        <v>1.32211660064787</v>
+        <v>8.853045</v>
       </c>
       <c r="I14">
-        <v>0.01509519085900335</v>
+        <v>0.02690050853279611</v>
       </c>
       <c r="J14">
-        <v>0.01509519085900335</v>
+        <v>0.02845992186834783</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.0264421308201</v>
+        <v>19.688264</v>
       </c>
       <c r="N14">
-        <v>15.0264421308201</v>
+        <v>59.064792</v>
       </c>
       <c r="O14">
-        <v>0.3797791737870136</v>
+        <v>0.4399241678743427</v>
       </c>
       <c r="P14">
-        <v>0.3797791737870136</v>
+        <v>0.4412293672812835</v>
       </c>
       <c r="Q14">
-        <v>19.86670858983181</v>
+        <v>58.10036238796</v>
       </c>
       <c r="R14">
-        <v>19.86670858983181</v>
+        <v>522.9032614916399</v>
       </c>
       <c r="S14">
-        <v>0.005732839112589571</v>
+        <v>0.01183418383168698</v>
       </c>
       <c r="T14">
-        <v>0.005732839112589571</v>
+        <v>0.01255735331884588</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.32211660064787</v>
+        <v>2.951015</v>
       </c>
       <c r="H15">
-        <v>1.32211660064787</v>
+        <v>8.853045</v>
       </c>
       <c r="I15">
-        <v>0.01509519085900335</v>
+        <v>0.02690050853279611</v>
       </c>
       <c r="J15">
-        <v>0.01509519085900335</v>
+        <v>0.02845992186834783</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.6286835961639</v>
+        <v>21.69375366666667</v>
       </c>
       <c r="N15">
-        <v>21.6286835961639</v>
+        <v>65.081261</v>
       </c>
       <c r="O15">
-        <v>0.546644609198888</v>
+        <v>0.4847358065637125</v>
       </c>
       <c r="P15">
-        <v>0.546644609198888</v>
+        <v>0.4861739564391943</v>
       </c>
       <c r="Q15">
-        <v>28.59564163264856</v>
+        <v>64.01859247663833</v>
       </c>
       <c r="R15">
-        <v>28.59564163264856</v>
+        <v>576.167332289745</v>
       </c>
       <c r="S15">
-        <v>0.008251704707902511</v>
+        <v>0.01303963970061895</v>
       </c>
       <c r="T15">
-        <v>0.008251704707902511</v>
+        <v>0.01383647281468501</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.32211660064787</v>
+        <v>2.951015</v>
       </c>
       <c r="H16">
-        <v>1.32211660064787</v>
+        <v>8.853045</v>
       </c>
       <c r="I16">
-        <v>0.01509519085900335</v>
+        <v>0.02690050853279611</v>
       </c>
       <c r="J16">
-        <v>0.01509519085900335</v>
+        <v>0.02845992186834783</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.396709227695802</v>
+        <v>0.397158</v>
       </c>
       <c r="N16">
-        <v>0.396709227695802</v>
+        <v>0.794316</v>
       </c>
       <c r="O16">
-        <v>0.01002645213127196</v>
+        <v>0.008874291946950641</v>
       </c>
       <c r="P16">
-        <v>0.01002645213127196</v>
+        <v>0.005933747233062296</v>
       </c>
       <c r="Q16">
-        <v>0.5244958555668155</v>
+        <v>1.17201921537</v>
       </c>
       <c r="R16">
-        <v>0.5244958555668155</v>
+        <v>7.03211529222</v>
       </c>
       <c r="S16">
-        <v>0.0001513512085602111</v>
+        <v>0.0002387229662414695</v>
       </c>
       <c r="T16">
-        <v>0.0001513512085602111</v>
+        <v>0.000168873982639478</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.79702006226727</v>
+        <v>3.515800666666667</v>
       </c>
       <c r="H17">
-        <v>2.79702006226727</v>
+        <v>10.547402</v>
       </c>
       <c r="I17">
-        <v>0.03193481698641123</v>
+        <v>0.03204891396122247</v>
       </c>
       <c r="J17">
-        <v>0.03193481698641123</v>
+        <v>0.03390677860939999</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.50049158653925</v>
+        <v>1.750370666666667</v>
       </c>
       <c r="N17">
-        <v>1.50049158653925</v>
+        <v>5.251112</v>
       </c>
       <c r="O17">
-        <v>0.03792351177005734</v>
+        <v>0.0391111353954311</v>
       </c>
       <c r="P17">
-        <v>0.03792351177005734</v>
+        <v>0.03922717319114838</v>
       </c>
       <c r="Q17">
-        <v>4.196905070813528</v>
+        <v>6.153954356780445</v>
       </c>
       <c r="R17">
-        <v>4.196905070813528</v>
+        <v>55.385589211024</v>
       </c>
       <c r="S17">
-        <v>0.001211080407858793</v>
+        <v>0.001253469413213894</v>
       </c>
       <c r="T17">
-        <v>0.001211080407858793</v>
+        <v>0.001330067076864859</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.79702006226727</v>
+        <v>3.515800666666667</v>
       </c>
       <c r="H18">
-        <v>2.79702006226727</v>
+        <v>10.547402</v>
       </c>
       <c r="I18">
-        <v>0.03193481698641123</v>
+        <v>0.03204891396122247</v>
       </c>
       <c r="J18">
-        <v>0.03193481698641123</v>
+        <v>0.03390677860939999</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.01393503384872</v>
+        <v>1.224221333333333</v>
       </c>
       <c r="N18">
-        <v>1.01393503384872</v>
+        <v>3.672664</v>
       </c>
       <c r="O18">
-        <v>0.02562625311276918</v>
+        <v>0.02735459821956294</v>
       </c>
       <c r="P18">
-        <v>0.02562625311276918</v>
+        <v>0.02743575585531137</v>
       </c>
       <c r="Q18">
-        <v>2.835996631510513</v>
+        <v>4.30411817988089</v>
       </c>
       <c r="R18">
-        <v>2.835996631510513</v>
+        <v>38.737063618928</v>
       </c>
       <c r="S18">
-        <v>0.0008183697032037348</v>
+        <v>0.0008766851647825819</v>
       </c>
       <c r="T18">
-        <v>0.0008183697032037348</v>
+        <v>0.0009302580997675921</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.79702006226727</v>
+        <v>3.515800666666667</v>
       </c>
       <c r="H19">
-        <v>2.79702006226727</v>
+        <v>10.547402</v>
       </c>
       <c r="I19">
-        <v>0.03193481698641123</v>
+        <v>0.03204891396122247</v>
       </c>
       <c r="J19">
-        <v>0.03193481698641123</v>
+        <v>0.03390677860939999</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.0264421308201</v>
+        <v>19.688264</v>
       </c>
       <c r="N19">
-        <v>15.0264421308201</v>
+        <v>59.064792</v>
       </c>
       <c r="O19">
-        <v>0.3797791737870136</v>
+        <v>0.4399241678743427</v>
       </c>
       <c r="P19">
-        <v>0.3797791737870136</v>
+        <v>0.4412293672812835</v>
       </c>
       <c r="Q19">
-        <v>42.02926010440196</v>
+        <v>69.22001169670934</v>
       </c>
       <c r="R19">
-        <v>42.02926010440196</v>
+        <v>622.980105270384</v>
       </c>
       <c r="S19">
-        <v>0.01212817841013874</v>
+        <v>0.0140990918056672</v>
       </c>
       <c r="T19">
-        <v>0.01212817841013874</v>
+        <v>0.01496066647237212</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.79702006226727</v>
+        <v>3.515800666666667</v>
       </c>
       <c r="H20">
-        <v>2.79702006226727</v>
+        <v>10.547402</v>
       </c>
       <c r="I20">
-        <v>0.03193481698641123</v>
+        <v>0.03204891396122247</v>
       </c>
       <c r="J20">
-        <v>0.03193481698641123</v>
+        <v>0.03390677860939999</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>21.6286835961639</v>
+        <v>21.69375366666667</v>
       </c>
       <c r="N20">
-        <v>21.6286835961639</v>
+        <v>65.081261</v>
       </c>
       <c r="O20">
-        <v>0.546644609198888</v>
+        <v>0.4847358065637125</v>
       </c>
       <c r="P20">
-        <v>0.546644609198888</v>
+        <v>0.4861739564391943</v>
       </c>
       <c r="Q20">
-        <v>60.49586193890143</v>
+        <v>76.27091360376912</v>
       </c>
       <c r="R20">
-        <v>60.49586193890143</v>
+        <v>686.438222433922</v>
       </c>
       <c r="S20">
-        <v>0.01745699555137478</v>
+        <v>0.0155352561584842</v>
       </c>
       <c r="T20">
-        <v>0.01745699555137478</v>
+        <v>0.01648459270663984</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.79702006226727</v>
+        <v>3.515800666666667</v>
       </c>
       <c r="H21">
-        <v>2.79702006226727</v>
+        <v>10.547402</v>
       </c>
       <c r="I21">
-        <v>0.03193481698641123</v>
+        <v>0.03204891396122247</v>
       </c>
       <c r="J21">
-        <v>0.03193481698641123</v>
+        <v>0.03390677860939999</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.396709227695802</v>
+        <v>0.397158</v>
       </c>
       <c r="N21">
-        <v>0.396709227695802</v>
+        <v>0.794316</v>
       </c>
       <c r="O21">
-        <v>0.01002645213127196</v>
+        <v>0.008874291946950641</v>
       </c>
       <c r="P21">
-        <v>0.01002645213127196</v>
+        <v>0.005933747233062296</v>
       </c>
       <c r="Q21">
-        <v>1.109603668751713</v>
+        <v>1.396328361172</v>
       </c>
       <c r="R21">
-        <v>1.109603668751713</v>
+        <v>8.377970167032</v>
       </c>
       <c r="S21">
-        <v>0.0003201929138351828</v>
+        <v>0.0002844114190745905</v>
       </c>
       <c r="T21">
-        <v>0.0003201929138351828</v>
+        <v>0.0002011942537555831</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.785867676398</v>
+        <v>18.032657</v>
       </c>
       <c r="H22">
-        <v>10.785867676398</v>
+        <v>36.06531399999999</v>
       </c>
       <c r="I22">
-        <v>0.1231470288440517</v>
+        <v>0.1643799314803501</v>
       </c>
       <c r="J22">
-        <v>0.1231470288440517</v>
+        <v>0.1159393201545266</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.50049158653925</v>
+        <v>1.750370666666667</v>
       </c>
       <c r="N22">
-        <v>1.50049158653925</v>
+        <v>5.251112</v>
       </c>
       <c r="O22">
-        <v>0.03792351177005734</v>
+        <v>0.0391111353954311</v>
       </c>
       <c r="P22">
-        <v>0.03792351177005734</v>
+        <v>0.03922717319114838</v>
       </c>
       <c r="Q22">
-        <v>16.18410370196085</v>
+        <v>31.56383385486133</v>
       </c>
       <c r="R22">
-        <v>16.18410370196085</v>
+        <v>189.383003129168</v>
       </c>
       <c r="S22">
-        <v>0.004670167797814984</v>
+        <v>0.006429085756419661</v>
       </c>
       <c r="T22">
-        <v>0.004670167797814984</v>
+        <v>0.004547971791365614</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.785867676398</v>
+        <v>18.032657</v>
       </c>
       <c r="H23">
-        <v>10.785867676398</v>
+        <v>36.06531399999999</v>
       </c>
       <c r="I23">
-        <v>0.1231470288440517</v>
+        <v>0.1643799314803501</v>
       </c>
       <c r="J23">
-        <v>0.1231470288440517</v>
+        <v>0.1159393201545266</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.01393503384872</v>
+        <v>1.224221333333333</v>
       </c>
       <c r="N23">
-        <v>1.01393503384872</v>
+        <v>3.672664</v>
       </c>
       <c r="O23">
-        <v>0.02562625311276918</v>
+        <v>0.02735459821956294</v>
       </c>
       <c r="P23">
-        <v>0.02562625311276918</v>
+        <v>0.02743575585531137</v>
       </c>
       <c r="Q23">
-        <v>10.93616910755642</v>
+        <v>22.07596339608266</v>
       </c>
       <c r="R23">
-        <v>10.93616910755642</v>
+        <v>132.455780376496</v>
       </c>
       <c r="S23">
-        <v>0.003155796931243155</v>
+        <v>0.004496546981004264</v>
       </c>
       <c r="T23">
-        <v>0.003155796931243155</v>
+        <v>0.003180882881790372</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.785867676398</v>
+        <v>18.032657</v>
       </c>
       <c r="H24">
-        <v>10.785867676398</v>
+        <v>36.06531399999999</v>
       </c>
       <c r="I24">
-        <v>0.1231470288440517</v>
+        <v>0.1643799314803501</v>
       </c>
       <c r="J24">
-        <v>0.1231470288440517</v>
+        <v>0.1159393201545266</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.0264421308201</v>
+        <v>19.688264</v>
       </c>
       <c r="N24">
-        <v>15.0264421308201</v>
+        <v>59.064792</v>
       </c>
       <c r="O24">
-        <v>0.3797791737870136</v>
+        <v>0.4399241678743427</v>
       </c>
       <c r="P24">
-        <v>0.3797791737870136</v>
+        <v>0.4412293672812835</v>
       </c>
       <c r="Q24">
-        <v>162.0732164700776</v>
+        <v>355.0317116374479</v>
       </c>
       <c r="R24">
-        <v>162.0732164700776</v>
+        <v>2130.190269824688</v>
       </c>
       <c r="S24">
-        <v>0.04676867686871947</v>
+        <v>0.0723147045717345</v>
       </c>
       <c r="T24">
-        <v>0.04676867686871947</v>
+        <v>0.05115583287480393</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.785867676398</v>
+        <v>18.032657</v>
       </c>
       <c r="H25">
-        <v>10.785867676398</v>
+        <v>36.06531399999999</v>
       </c>
       <c r="I25">
-        <v>0.1231470288440517</v>
+        <v>0.1643799314803501</v>
       </c>
       <c r="J25">
-        <v>0.1231470288440517</v>
+        <v>0.1159393201545266</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.6286835961639</v>
+        <v>21.69375366666667</v>
       </c>
       <c r="N25">
-        <v>21.6286835961639</v>
+        <v>65.081261</v>
       </c>
       <c r="O25">
-        <v>0.546644609198888</v>
+        <v>0.4847358065637125</v>
       </c>
       <c r="P25">
-        <v>0.546644609198888</v>
+        <v>0.4861739564391943</v>
       </c>
       <c r="Q25">
-        <v>233.2841192829039</v>
+        <v>391.1960189134923</v>
       </c>
       <c r="R25">
-        <v>233.2841192829039</v>
+        <v>2347.176113480954</v>
       </c>
       <c r="S25">
-        <v>0.0673176594564608</v>
+        <v>0.07968083866901532</v>
       </c>
       <c r="T25">
-        <v>0.0673176594564608</v>
+        <v>0.05636667798639661</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.785867676398</v>
+        <v>18.032657</v>
       </c>
       <c r="H26">
-        <v>10.785867676398</v>
+        <v>36.06531399999999</v>
       </c>
       <c r="I26">
-        <v>0.1231470288440517</v>
+        <v>0.1643799314803501</v>
       </c>
       <c r="J26">
-        <v>0.1231470288440517</v>
+        <v>0.1159393201545266</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.396709227695802</v>
+        <v>0.397158</v>
       </c>
       <c r="N26">
-        <v>0.396709227695802</v>
+        <v>0.794316</v>
       </c>
       <c r="O26">
-        <v>0.01002645213127196</v>
+        <v>0.008874291946950641</v>
       </c>
       <c r="P26">
-        <v>0.01002645213127196</v>
+        <v>0.005933747233062296</v>
       </c>
       <c r="Q26">
-        <v>4.278853235932965</v>
+        <v>7.161813988805999</v>
       </c>
       <c r="R26">
-        <v>4.278853235932965</v>
+        <v>28.647255955224</v>
       </c>
       <c r="S26">
-        <v>0.001234727789813251</v>
+        <v>0.001458755502176369</v>
       </c>
       <c r="T26">
-        <v>0.001234727789813251</v>
+        <v>0.0006879546201700458</v>
       </c>
     </row>
   </sheetData>
